--- a/Allocation/Allocation.Web/ExcelTemplate/Template.xlsx
+++ b/Allocation/Allocation.Web/ExcelTemplate/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\软件\备份\项目\分拨系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test\serene\Allocation\Allocation\Allocation.Web\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>申报单位</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>主运单号</t>
   </si>
@@ -459,20 +456,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -486,9 +483,6 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Allocation/Allocation.Web/ExcelTemplate/Template.xlsx
+++ b/Allocation/Allocation.Web/ExcelTemplate/Template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>主运单号</t>
   </si>
@@ -39,6 +39,10 @@
   </si>
   <si>
     <t>航班号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -108,11 +112,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,15 +463,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -482,6 +489,9 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
